--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Effect_2</t>
+  </si>
+  <si>
+    <t>背刺</t>
+  </si>
+  <si>
+    <t>对目标造成伤害100</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,14 +1976,30 @@
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="21">
+        <v>65</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20">
+        <v>12</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Effect_2</t>
+  </si>
+  <si>
+    <t>肾击</t>
+  </si>
+  <si>
+    <t>队目标造成伤害</t>
+  </si>
+  <si>
+    <t>背刺</t>
+  </si>
+  <si>
+    <t>对目标造成伤害</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,10 +1982,18 @@
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="21">
+        <v>65</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1988,10 +2008,18 @@
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="20">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s" s="21">
+        <v>67</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -208,13 +208,10 @@
     <t>Effect_2</t>
   </si>
   <si>
-    <t>肾击</t>
-  </si>
-  <si>
-    <t>队目标造成伤害</t>
-  </si>
-  <si>
     <t>背刺</t>
+  </si>
+  <si>
+    <t>对目标造成伤害100</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -1994,9 +1991,15 @@
       <c r="F10" t="s" s="21">
         <v>65</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2015,10 +2018,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s" s="21">
         <v>66</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>67</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -145,16 +145,22 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int</t>
-  </si>
-  <si>
-    <t>interface</t>
+    <t>map[string]int32</t>
+  </si>
+  <si>
+    <t>interface{}</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -1806,46 +1812,46 @@
         <v>42</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s" s="10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="L6" t="s" s="10">
-        <v>34</v>
-      </c>
       <c r="M6" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P6" s="13"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14">
         <v>0</v>
@@ -1854,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
@@ -1881,7 +1887,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" t="s" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -1894,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s" s="16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="17">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
@@ -1912,22 +1918,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="16">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s" s="18">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s" s="18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s" s="19">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
@@ -1940,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="20">
         <v>1</v>
@@ -1958,22 +1964,22 @@
         <v>10</v>
       </c>
       <c r="K9" t="s" s="21">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
       </c>
       <c r="M9" t="s" s="21">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s" s="23">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s" s="23">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s" s="24">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1986,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s" s="21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
@@ -2018,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s" s="21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -145,19 +145,13 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>float32</t>
-  </si>
-  <si>
-    <t>[]int32</t>
+    <t>[]int</t>
   </si>
   <si>
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int32</t>
+    <t>map[string]int</t>
   </si>
   <si>
     <t>interface{}</t>
@@ -215,9 +209,6 @@
   </si>
   <si>
     <t>背刺</t>
-  </si>
-  <si>
-    <t>对目标造成伤害100</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -407,7 +398,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -482,9 +473,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1598,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1812,46 +1800,46 @@
         <v>42</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="H6" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s" s="10">
+      <c r="L6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="J6" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s" s="10">
+      <c r="N6" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="L6" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s" s="10">
+      <c r="O6" t="s" s="10">
         <v>46</v>
-      </c>
-      <c r="N6" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>48</v>
       </c>
       <c r="P6" s="13"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="14">
         <v>0</v>
@@ -1860,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
@@ -1887,7 +1875,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" t="s" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
@@ -1900,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s" s="16">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="17">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
@@ -1918,22 +1906,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="16">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s" s="18">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s" s="18">
         <v>56</v>
       </c>
-      <c r="N8" t="s" s="18">
+      <c r="P8" t="s" s="19">
         <v>57</v>
-      </c>
-      <c r="O8" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s" s="19">
-        <v>59</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1">
@@ -1946,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="20">
         <v>1</v>
@@ -1964,48 +1952,42 @@
         <v>10</v>
       </c>
       <c r="K9" t="s" s="21">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
       </c>
       <c r="M9" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s" s="23">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s" s="23">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s" s="24">
         <v>63</v>
-      </c>
-      <c r="N9" t="s" s="23">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s" s="23">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s" s="24">
-        <v>65</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25">
-        <v>3</v>
+      <c r="C10" s="20">
+        <v>4</v>
       </c>
       <c r="D10" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s" s="21">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>67</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2013,32 +1995,6 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="20">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Effect</t>
   </si>
   <si>
+    <t>TestField</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>显示特效</t>
   </si>
   <si>
+    <t>测试字段</t>
+  </si>
+  <si>
     <t>客户端导出字段类型</t>
   </si>
   <si>
@@ -145,13 +151,19 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int</t>
+    <t>map[string]int32</t>
   </si>
   <si>
     <t>interface{}</t>
@@ -169,6 +181,9 @@
     <t>默认特效名</t>
   </si>
   <si>
+    <t>test_field</t>
+  </si>
+  <si>
     <t>酋长的祝福</t>
   </si>
   <si>
@@ -209,6 +224,9 @@
   </si>
   <si>
     <t>背刺</t>
+  </si>
+  <si>
+    <t>对目标造成伤害100</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -269,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -387,6 +405,17 @@
         <color indexed="11"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -398,7 +427,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -435,28 +464,34 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -473,6 +508,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1606,8 +1644,8 @@
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
     <col min="15" max="15" width="31.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3516" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.3516" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1629,6 +1667,8 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" ht="57" customHeight="1">
       <c r="A2" s="5"/>
@@ -1651,6 +1691,8 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" ht="14" customHeight="1">
       <c r="A3" s="4"/>
@@ -1699,295 +1741,325 @@
       <c r="P3" t="s" s="11">
         <v>17</v>
       </c>
+      <c r="Q3" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" ht="14" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" t="s" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s" s="11">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" t="s" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="L5" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" t="s" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s" s="11">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" t="s" s="10">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="10">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="10">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="P6" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="C7" s="14">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="G7" s="14">
+        <v>53</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" t="s" s="11">
-        <v>50</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" t="s" s="16">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s" s="17">
-        <v>52</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="E8" t="s" s="18">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="17">
         <v>10</v>
       </c>
-      <c r="K8" t="s" s="16">
-        <v>53</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="K8" t="s" s="18">
+        <v>58</v>
+      </c>
+      <c r="L8" s="17">
         <v>0</v>
       </c>
-      <c r="M8" t="s" s="16">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s" s="18">
-        <v>55</v>
-      </c>
-      <c r="O8" t="s" s="18">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s" s="19">
-        <v>57</v>
-      </c>
+      <c r="M8" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" t="s" s="21">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s" s="22">
-        <v>59</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="E9" t="s" s="23">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>64</v>
+      </c>
+      <c r="G9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="22">
         <v>0</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="22">
         <v>10</v>
       </c>
-      <c r="K9" t="s" s="21">
-        <v>60</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="K9" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="L9" s="22">
         <v>0</v>
       </c>
-      <c r="M9" t="s" s="21">
+      <c r="M9" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s" s="25">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s" s="25">
         <v>61</v>
       </c>
-      <c r="N9" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="O9" t="s" s="23">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s" s="24">
-        <v>63</v>
-      </c>
+      <c r="P9" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="20">
-        <v>4</v>
-      </c>
-      <c r="D10" s="20">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="21">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="27">
+        <v>3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1995,6 +2067,36 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" ht="14" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="22">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -167,21 +167,6 @@
   </si>
   <si>
     <t>interface{}</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认buff名</t>
-  </si>
-  <si>
-    <t>默认效果描述</t>
-  </si>
-  <si>
-    <t>默认特效名</t>
-  </si>
-  <si>
-    <t>test_field</t>
   </si>
   <si>
     <t>酋长的祝福</t>
@@ -427,7 +412,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -474,9 +459,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1624,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1894,172 +1876,154 @@
       </c>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="27" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="10">
+      <c r="F7" t="s" s="18">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="10">
-        <v>53</v>
-      </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="16">
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K7" t="s" s="17">
+        <v>53</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" t="s" s="11">
+      <c r="M7" t="s" s="17">
         <v>54</v>
       </c>
-      <c r="Q7" t="s" s="12">
+      <c r="N7" t="s" s="19">
         <v>55</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="O7" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
-    <row r="8" ht="27" customHeight="1">
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="17">
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s" s="22">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>59</v>
+      </c>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="18">
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s" s="22">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s" s="24">
         <v>56</v>
       </c>
-      <c r="F8" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>10</v>
-      </c>
-      <c r="J8" s="17">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s" s="18">
-        <v>59</v>
-      </c>
-      <c r="N8" t="s" s="20">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s" s="20">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s" s="21">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="P8" t="s" s="25">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="22">
-        <v>2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s" s="24">
+      <c r="C9" s="26">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="22">
         <v>64</v>
       </c>
-      <c r="G9" s="22">
+      <c r="F9" t="s" s="22">
+        <v>65</v>
+      </c>
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2</v>
-      </c>
-      <c r="J9" s="22">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s" s="23">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s" s="25">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s" s="25">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="27">
-        <v>3</v>
-      </c>
-      <c r="D10" s="22">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s" s="23">
-        <v>70</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="22">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="22">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2070,34 +2034,6 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="22">
-        <v>4</v>
-      </c>
-      <c r="D11" s="22">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="23">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s" s="23">
-        <v>71</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -28,10 +28,10 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>BuffType</t>
+    <t>*Id</t>
+  </si>
+  <si>
+    <t>*BuffType</t>
   </si>
   <si>
     <t>Name</t>
@@ -492,7 +492,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,7 +1928,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="21">
         <v>2</v>
@@ -1976,10 +1976,10 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
         <v>64</v>
@@ -2010,10 +2010,10 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
         <v>64</v>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -163,7 +163,7 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>map[string]int32</t>
+    <t>map[string]int</t>
   </si>
   <si>
     <t>interface{}</t>
@@ -1624,7 +1624,7 @@
     <col min="11" max="11" width="10.1719" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.85156" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8516" style="1" customWidth="1"/>
     <col min="15" max="15" width="31.1719" style="1" customWidth="1"/>
     <col min="16" max="18" width="10.3516" style="1" customWidth="1"/>
     <col min="19" max="16384" width="6" style="1" customWidth="1"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>对目标造成伤害100</t>
+  </si>
+  <si>
+    <t>Armor:123,DmgInc:8880</t>
   </si>
   <si>
     <t>对目标造成伤害</t>
@@ -2000,7 +2003,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" t="s" s="22">
+        <v>66</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2019,7 +2024,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -28,43 +28,43 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>*Id</t>
-  </si>
-  <si>
-    <t>*BuffType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>NextLevel</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>LifeTime</t>
-  </si>
-  <si>
-    <t>BuffOverlap</t>
-  </si>
-  <si>
-    <t>MaxLimit</t>
-  </si>
-  <si>
-    <t>Params_StrValue</t>
-  </si>
-  <si>
-    <t>Params_Formula</t>
-  </si>
-  <si>
-    <t>Params_NumValue</t>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>*buffType</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>nextLevel</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>lifeTime</t>
+  </si>
+  <si>
+    <t>buffOverlap</t>
+  </si>
+  <si>
+    <t>maxLimit</t>
+  </si>
+  <si>
+    <t>params_StrValue</t>
+  </si>
+  <si>
+    <t>params_Formula</t>
+  </si>
+  <si>
+    <t>params_NumValue</t>
   </si>
   <si>
     <t>Effect</t>
@@ -166,7 +166,7 @@
     <t>map[string]int</t>
   </si>
   <si>
-    <t>interface{}</t>
+    <t>map[string]string</t>
   </si>
   <si>
     <t>酋长的祝福</t>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>map[string]string</t>
+  </si>
+  <si>
+    <t>interface{}</t>
   </si>
   <si>
     <t>酋长的祝福</t>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" t="s" s="12">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R6" s="15"/>
     </row>
@@ -1889,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -1907,22 +1910,22 @@
         <v>10</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
       <c r="M7" t="s" s="17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s" s="19">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s" s="20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -1937,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s" s="22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s" s="23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -1955,22 +1958,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="22">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" s="21">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s" s="24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s" s="24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s" s="25">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1985,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -2004,7 +2007,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="22">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2021,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>

--- a/config/excel/buff.xlsx
+++ b/config/excel/buff.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -28,10 +28,10 @@
     <t>导出字段名</t>
   </si>
   <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>*buffType</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>buffType</t>
   </si>
   <si>
     <t>name</t>
@@ -76,9 +76,6 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>buff类型</t>
   </si>
   <si>
@@ -121,37 +118,22 @@
     <t>测试字段</t>
   </si>
   <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>导出字段控制</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Array&lt;int32&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>Map&lt;string,int32&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;Array&lt;string&gt;&gt;</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>float32</t>
@@ -1740,145 +1722,131 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="E4" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="F4" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="G4" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="H4" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="I4" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="I4" t="s" s="10">
+      <c r="J4" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="J4" t="s" s="10">
+      <c r="K4" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="K4" t="s" s="10">
+      <c r="L4" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="M4" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="M4" t="s" s="10">
+      <c r="N4" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="N4" t="s" s="10">
+      <c r="O4" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="O4" t="s" s="10">
+      <c r="P4" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="P4" t="s" s="11">
+      <c r="Q4" t="s" s="12">
         <v>33</v>
-      </c>
-      <c r="Q4" t="s" s="12">
-        <v>34</v>
       </c>
       <c r="R4" s="12"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="D5" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="F5" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s" s="12">
-        <v>43</v>
-      </c>
+      <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s" s="10">
         <v>44</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>50</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" t="s" s="12">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R6" s="15"/>
     </row>
@@ -1892,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="18">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -1910,22 +1878,22 @@
         <v>10</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
       </c>
       <c r="M7" t="s" s="17">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s" s="19">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s" s="19">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s" s="20">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -1940,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s" s="22">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s" s="23">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -1958,22 +1926,22 @@
         <v>10</v>
       </c>
       <c r="K8" t="s" s="22">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L8" s="21">
         <v>0</v>
       </c>
       <c r="M8" t="s" s="22">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s" s="24">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s" s="24">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s" s="25">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -1988,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s" s="22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s" s="22">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -2007,7 +1975,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="22">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2024,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s" s="22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s" s="22">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
